--- a/Pull Request Here/Ratkin Lifestyle+ - 3263391066/Ratkin Lifestyle+ - 3263391066.xlsx
+++ b/Pull Request Here/Ratkin Lifestyle+ - 3263391066/Ratkin Lifestyle+ - 3263391066.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Ratkin Lifestyle+ - 3263391066\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C773E6-19F7-48A9-B9D0-09ACDA8F54B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F0B20-324B-4759-817C-D06F8E0412B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="283">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -750,10 +750,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그림에는 언덕 위에 서 있는 랫킨 병사가 그려져 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"self-portrait"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -978,14 +974,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아동용 랫킨 군용헬멧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린이를 위해 디자인된 군용 헬멧입니다. \n\n이 헬멧을 쓴 아이가 있다면,  상황이 매우 심각하다는 것을 의미합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>의류 건조대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -995,6 +983,22 @@
   </si>
   <si>
     <t>작은 동물들을 쫓아내기 위해 사용되는 허수아비. 하지만 거의 효과가 없어 보입니다.\n\n 회전하여 스타일을 변경할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림에는 언덕 위에 서 있는 랫킨 군인이 그려져 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아동용 랫킨 방탄헬멧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이를 위해 디자인된 방탄 모자입니다. \n\n이 헬멧을 쓴 아이가 있다면,  상황이 매우 심각하다는 것을 의미합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.ThingDef</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1618,7 +1622,7 @@
         <v>153</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,7 +1656,7 @@
         <v>153</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,7 +1741,7 @@
         <v>190</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2026,7 +2030,7 @@
         <v>218</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2040,10 +2044,10 @@
         <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,10 +2061,10 @@
         <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2074,10 +2078,10 @@
         <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2091,10 +2095,10 @@
         <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2108,10 +2112,10 @@
         <v>95</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,10 +2129,10 @@
         <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2142,10 +2146,10 @@
         <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,10 +2163,10 @@
         <v>101</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,10 +2180,10 @@
         <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2193,10 +2197,10 @@
         <v>106</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2213,7 +2217,7 @@
         <v>104</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2227,10 +2231,10 @@
         <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2247,7 +2251,7 @@
         <v>104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2261,10 +2265,10 @@
         <v>114</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2281,7 +2285,7 @@
         <v>104</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2295,10 +2299,10 @@
         <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,10 +2316,10 @@
         <v>120</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2329,10 +2333,10 @@
         <v>122</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,10 +2350,10 @@
         <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2363,10 +2367,10 @@
         <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2374,7 +2378,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>128</v>
@@ -2383,10 +2387,10 @@
         <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2394,7 +2398,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>131</v>
@@ -2403,10 +2407,10 @@
         <v>129</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2414,7 +2418,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>133</v>
@@ -2423,10 +2427,10 @@
         <v>129</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2434,7 +2438,7 @@
         <v>134</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>135</v>
@@ -2443,10 +2447,10 @@
         <v>129</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2454,7 +2458,7 @@
         <v>136</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>137</v>
@@ -2463,10 +2467,10 @@
         <v>129</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2474,7 +2478,7 @@
         <v>138</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>139</v>
@@ -2483,10 +2487,10 @@
         <v>129</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2494,7 +2498,7 @@
         <v>140</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>141</v>
@@ -2503,10 +2507,10 @@
         <v>129</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2514,7 +2518,7 @@
         <v>142</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>143</v>
@@ -2523,10 +2527,10 @@
         <v>129</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2534,7 +2538,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>145</v>
@@ -2543,10 +2547,10 @@
         <v>129</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,7 +2558,7 @@
         <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>147</v>
@@ -2563,10 +2567,10 @@
         <v>129</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,7 +2578,7 @@
         <v>148</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>149</v>
@@ -2583,10 +2587,10 @@
         <v>129</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2594,7 +2598,7 @@
         <v>150</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>151</v>
@@ -2603,10 +2607,10 @@
         <v>129</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/Ratkin Lifestyle+ - 3263391066/Ratkin Lifestyle+ - 3263391066.xlsx
+++ b/Pull Request Here/Ratkin Lifestyle+ - 3263391066/Ratkin Lifestyle+ - 3263391066.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F0B20-324B-4759-817C-D06F8E0412B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA364CE-E5B4-488A-B5D7-5FBCD37AEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,10 +554,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>풍차 (전력)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Huge windmills that generate electricity from the wind.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -999,6 +995,10 @@
   </si>
   <si>
     <t>Patches.ThingDef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차 발전기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1503,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1551,10 +1551,10 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,10 +1568,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1585,10 +1585,10 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>153</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
         <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
         <v>153</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1687,10 +1687,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,10 +1704,10 @@
         <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1721,10 +1721,10 @@
         <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,10 +1738,10 @@
         <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1755,10 +1755,10 @@
         <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,10 +1789,10 @@
         <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1806,10 +1806,10 @@
         <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>61</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,7 +1843,7 @@
         <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1857,10 +1857,10 @@
         <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1908,10 +1908,10 @@
         <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,10 +1925,10 @@
         <v>73</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,10 +1942,10 @@
         <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1959,10 +1959,10 @@
         <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1976,10 +1976,10 @@
         <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1993,10 +1993,10 @@
         <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2010,10 +2010,10 @@
         <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2027,10 +2027,10 @@
         <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,10 +2044,10 @@
         <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2061,10 +2061,10 @@
         <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2095,10 +2095,10 @@
         <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,10 +2112,10 @@
         <v>95</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,10 +2129,10 @@
         <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,10 +2146,10 @@
         <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,10 +2163,10 @@
         <v>101</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2180,10 +2180,10 @@
         <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,10 +2197,10 @@
         <v>106</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2217,7 +2217,7 @@
         <v>104</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2231,10 +2231,10 @@
         <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
         <v>104</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,10 +2265,10 @@
         <v>114</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2285,7 +2285,7 @@
         <v>104</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2299,10 +2299,10 @@
         <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2316,10 +2316,10 @@
         <v>120</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2333,10 +2333,10 @@
         <v>122</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2350,10 +2350,10 @@
         <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2367,10 +2367,10 @@
         <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>128</v>
@@ -2387,10 +2387,10 @@
         <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>131</v>
@@ -2407,10 +2407,10 @@
         <v>129</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2418,7 +2418,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>133</v>
@@ -2427,10 +2427,10 @@
         <v>129</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,7 +2438,7 @@
         <v>134</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>135</v>
@@ -2447,10 +2447,10 @@
         <v>129</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
         <v>136</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>137</v>
@@ -2467,10 +2467,10 @@
         <v>129</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2478,7 +2478,7 @@
         <v>138</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>139</v>
@@ -2487,10 +2487,10 @@
         <v>129</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,7 +2498,7 @@
         <v>140</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>141</v>
@@ -2507,10 +2507,10 @@
         <v>129</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
         <v>142</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>143</v>
@@ -2527,10 +2527,10 @@
         <v>129</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>145</v>
@@ -2547,10 +2547,10 @@
         <v>129</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2558,7 +2558,7 @@
         <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>147</v>
@@ -2567,10 +2567,10 @@
         <v>129</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2578,7 +2578,7 @@
         <v>148</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>149</v>
@@ -2587,10 +2587,10 @@
         <v>129</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2598,7 +2598,7 @@
         <v>150</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>151</v>
@@ -2607,10 +2607,10 @@
         <v>129</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
